--- a/MLModel/data/sample_labeling.xlsx
+++ b/MLModel/data/sample_labeling.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weiluo/Desktop/chatbot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weiluo/DockerDev/jupyter/Chatbot1.0/MLModel/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74EF45D1-5C48-6C43-918C-94288794A79A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B2C3D0-E76B-8A44-844C-CBD911AFE501}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16480" xr2:uid="{E84A3ACB-809C-D248-AEB4-7F0C073B660B}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16420" activeTab="2" xr2:uid="{E84A3ACB-809C-D248-AEB4-7F0C073B660B}"/>
   </bookViews>
   <sheets>
     <sheet name="IDClassifier" sheetId="1" r:id="rId1"/>
-    <sheet name="WilingToPay" sheetId="2" r:id="rId2"/>
+    <sheet name="不确定" sheetId="3" r:id="rId2"/>
+    <sheet name="IfKnowDebtor" sheetId="4" r:id="rId3"/>
+    <sheet name="WilingToPay" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>label</t>
   </si>
@@ -128,6 +130,21 @@
   </si>
   <si>
     <t>请求其他通讯方式</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>再等我1分钟</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>干嘛和我爸联系</t>
+  </si>
+  <si>
+    <t>干嘛联系我家人</t>
   </si>
 </sst>
 </file>
@@ -499,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217A16B8-94AE-174A-A2C4-718C4D8E0A4F}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -693,6 +710,79 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F47101-20B8-E445-9722-C6ABD0B77C41}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF208F6-8F7B-8D49-84C9-D3BD8D9F7EAC}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C76344C-0787-5140-A8F0-C7C92869D3AF}">
   <dimension ref="A1:C3"/>
   <sheetViews>

--- a/MLModel/data/sample_labeling.xlsx
+++ b/MLModel/data/sample_labeling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weiluo/DockerDev/jupyter/Chatbot1.0/MLModel/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B2C3D0-E76B-8A44-844C-CBD911AFE501}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10642F80-C974-CC4E-8899-D47F45A5D886}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16420" activeTab="2" xr2:uid="{E84A3ACB-809C-D248-AEB4-7F0C073B660B}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16420" activeTab="3" xr2:uid="{E84A3ACB-809C-D248-AEB4-7F0C073B660B}"/>
   </bookViews>
   <sheets>
     <sheet name="IDClassifier" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
   <si>
     <t>label</t>
   </si>
@@ -145,6 +145,109 @@
   </si>
   <si>
     <t>干嘛联系我家人</t>
+  </si>
+  <si>
+    <t>来上门</t>
+  </si>
+  <si>
+    <t>想约定地点谈具体还款事宜！创建一个新类叫做“请求面谈”</t>
+  </si>
+  <si>
+    <t>需要确认</t>
+  </si>
+  <si>
+    <t>今天下午能处理掉吧</t>
+  </si>
+  <si>
+    <t>“吧”表示不太肯定 -- 分到模糊确认，会让欠款人再确认一次！</t>
+  </si>
+  <si>
+    <t>等等处理</t>
+  </si>
+  <si>
+    <t>等等太模糊了</t>
+  </si>
+  <si>
+    <t>有时间在处理，现在在忙</t>
+  </si>
+  <si>
+    <t>1.不能分到104请求等下打来，因为欠款人并没说不方便通话
+2.分到106，具体确定还款时间</t>
+  </si>
+  <si>
+    <t>不要急</t>
+  </si>
+  <si>
+    <t>没有表明还款意愿，给人感觉想赖账</t>
+  </si>
+  <si>
+    <t>我再想想</t>
+  </si>
+  <si>
+    <t>很模糊，需要再次确认！</t>
+  </si>
+  <si>
+    <t>现在没空</t>
+  </si>
+  <si>
+    <t>在此类别下不能分到104请求等下打来！在这个节点更像是说现在不方便还钱，分到1</t>
+  </si>
+  <si>
+    <t>以后再说</t>
+  </si>
+  <si>
+    <t>3天之内</t>
+  </si>
+  <si>
+    <t>很模糊，需要再次确认！是指3天内还钱还是什么？</t>
+  </si>
+  <si>
+    <t>滚开不还</t>
+  </si>
+  <si>
+    <t>推脱的意味比较强</t>
+  </si>
+  <si>
+    <t>很明确表明了不想还钱</t>
+  </si>
+  <si>
+    <t>这礼拜处理</t>
+  </si>
+  <si>
+    <t>注意正则表达式把 这礼拜要提出来</t>
+  </si>
+  <si>
+    <t>什么时候借</t>
+  </si>
+  <si>
+    <t>确认关于贷款的明细</t>
+  </si>
+  <si>
+    <t>我不知道啊</t>
+  </si>
+  <si>
+    <t>还款人没有表露出任何还款的意愿，需要施压！</t>
+  </si>
+  <si>
+    <t>我忘记了，等会儿处理</t>
+  </si>
+  <si>
+    <t>等会儿太模糊了！</t>
+  </si>
+  <si>
+    <t>我不一定能凑到钱</t>
+  </si>
+  <si>
+    <t>太含糊了，同时也表明了还款意愿！只需要再向他确认，是否明天下午能不能还，给个准话！</t>
+  </si>
+  <si>
+    <t>等会，尽快，过段时间，马上的界定！</t>
+  </si>
+  <si>
+    <t>我已经还了！</t>
+  </si>
+  <si>
+    <t>遇到这种怎么办？ 可能真的还了，可能乱说的！</t>
   </si>
 </sst>
 </file>
@@ -166,7 +269,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,6 +279,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -192,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -200,6 +309,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,7 +854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF208F6-8F7B-8D49-84C9-D3BD8D9F7EAC}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -784,19 +894,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C76344C-0787-5140-A8F0-C7C92869D3AF}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -807,7 +917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -818,7 +928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -827,6 +937,182 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>106</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12">
+        <v>106</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="5">
+        <v>106</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18">
+        <v>106</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/MLModel/data/sample_labeling.xlsx
+++ b/MLModel/data/sample_labeling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weiluo/DockerDev/jupyter/Chatbot1.0/MLModel/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10642F80-C974-CC4E-8899-D47F45A5D886}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9B0CE8-4727-D74A-B257-E80991F75323}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16420" activeTab="3" xr2:uid="{E84A3ACB-809C-D248-AEB4-7F0C073B660B}"/>
   </bookViews>

--- a/MLModel/data/sample_labeling.xlsx
+++ b/MLModel/data/sample_labeling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weiluo/DockerDev/jupyter/Chatbot1.0/MLModel/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9B0CE8-4727-D74A-B257-E80991F75323}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542AB079-49B3-6C42-9081-7DA58ED5AB38}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16420" activeTab="3" xr2:uid="{E84A3ACB-809C-D248-AEB4-7F0C073B660B}"/>
   </bookViews>
@@ -17,6 +17,8 @@
     <sheet name="不确定" sheetId="3" r:id="rId2"/>
     <sheet name="IfKnowDebtor" sheetId="4" r:id="rId3"/>
     <sheet name="WilingToPay" sheetId="2" r:id="rId4"/>
+    <sheet name="Installment" sheetId="6" r:id="rId5"/>
+    <sheet name="confirmLoan" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="83">
   <si>
     <t>label</t>
   </si>
@@ -151,9 +153,6 @@
   </si>
   <si>
     <t>想约定地点谈具体还款事宜！创建一个新类叫做“请求面谈”</t>
-  </si>
-  <si>
-    <t>需要确认</t>
   </si>
   <si>
     <t>今天下午能处理掉吧</t>
@@ -241,13 +240,50 @@
     <t>太含糊了，同时也表明了还款意愿！只需要再向他确认，是否明天下午能不能还，给个准话！</t>
   </si>
   <si>
-    <t>等会，尽快，过段时间，马上的界定！</t>
-  </si>
-  <si>
     <t>我已经还了！</t>
   </si>
   <si>
     <t>遇到这种怎么办？ 可能真的还了，可能乱说的！</t>
+  </si>
+  <si>
+    <t>你们公司怕是骗子哦</t>
+  </si>
+  <si>
+    <t>因为并没有否认欠款的事情，不能分到1，否则话术僵硬！</t>
+  </si>
+  <si>
+    <t>我朋友拿我的身份证借的</t>
+  </si>
+  <si>
+    <t>因为不承认是本人欠款所以分到1</t>
+  </si>
+  <si>
+    <t>怎么这么多？</t>
+  </si>
+  <si>
+    <t>承认欠款，放在WillingToPay解释</t>
+  </si>
+  <si>
+    <t>表示不知道为什么忘了还！</t>
+  </si>
+  <si>
+    <t>等会儿， 106
+尽快，106
+过段时间，106
+马上， 0
+的界定！</t>
+  </si>
+  <si>
+    <t>故意岔开话题</t>
+  </si>
+  <si>
+    <t>已经还清（其他类别）</t>
+  </si>
+  <si>
+    <t>今天先处理一点，剩下的下个月全部还</t>
+  </si>
+  <si>
+    <t>不清楚具体能否把今天的金额满足，所以模糊确认</t>
   </si>
 </sst>
 </file>
@@ -301,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -310,6 +346,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,7 +864,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -855,7 +895,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -897,7 +937,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -928,7 +968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -939,180 +979,292 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="6">
+        <v>106</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="6">
+        <v>106</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="6">
+        <v>106</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="6">
+        <v>106</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="6">
+        <v>106</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="6">
+        <v>102</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="6" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="6">
+        <v>106</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="6">
+        <v>106</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCE5F03-CB60-6A47-8D74-86E6CD770190}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2C4F4D-7F09-5449-8E44-347BDCE6E347}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="5">
+        <v>109</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B5">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6">
-        <v>106</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7">
-        <v>106</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9">
-        <v>106</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12">
-        <v>106</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15">
-        <v>102</v>
-      </c>
-      <c r="C15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="5">
-        <v>106</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18">
-        <v>106</v>
-      </c>
-      <c r="C18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/MLModel/data/sample_labeling.xlsx
+++ b/MLModel/data/sample_labeling.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weiluo/DockerDev/jupyter/Chatbot1.0/MLModel/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542AB079-49B3-6C42-9081-7DA58ED5AB38}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A544AC03-9802-DD41-BFB4-3D448A01C870}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16420" activeTab="3" xr2:uid="{E84A3ACB-809C-D248-AEB4-7F0C073B660B}"/>
+    <workbookView xWindow="9480" yWindow="460" windowWidth="28040" windowHeight="16240" activeTab="6" xr2:uid="{E84A3ACB-809C-D248-AEB4-7F0C073B660B}"/>
   </bookViews>
   <sheets>
     <sheet name="IDClassifier" sheetId="1" r:id="rId1"/>
     <sheet name="不确定" sheetId="3" r:id="rId2"/>
     <sheet name="IfKnowDebtor" sheetId="4" r:id="rId3"/>
     <sheet name="WilingToPay" sheetId="2" r:id="rId4"/>
-    <sheet name="Installment" sheetId="6" r:id="rId5"/>
-    <sheet name="confirmLoan" sheetId="5" r:id="rId6"/>
+    <sheet name="confirmPTP" sheetId="7" r:id="rId5"/>
+    <sheet name="CutDebt" sheetId="8" r:id="rId6"/>
+    <sheet name="Installment" sheetId="6" r:id="rId7"/>
+    <sheet name="confirmLoan" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="179021" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="113">
   <si>
     <t>label</t>
   </si>
@@ -284,6 +286,96 @@
   </si>
   <si>
     <t>不清楚具体能否把今天的金额满足，所以模糊确认</t>
+  </si>
+  <si>
+    <t>我这两天还</t>
+  </si>
+  <si>
+    <t>我过两天还</t>
+  </si>
+  <si>
+    <t>模糊确认，再次确认是哪一天</t>
+  </si>
+  <si>
+    <t>等我有了钱立马还</t>
+  </si>
+  <si>
+    <t>推脱的意味比较强，不知道哪天有钱</t>
+  </si>
+  <si>
+    <t>好的，给我两天时间我处理</t>
+  </si>
+  <si>
+    <t>两天比较模糊，需要106再处理</t>
+  </si>
+  <si>
+    <t>还了那么多，还有这么多</t>
+  </si>
+  <si>
+    <t>确认数额，告知历史还款数额，现在还欠数额</t>
+  </si>
+  <si>
+    <t>是的</t>
+  </si>
+  <si>
+    <t>不是，是明天上午10点</t>
+  </si>
+  <si>
+    <t>0+ 正则表达式</t>
+  </si>
+  <si>
+    <t>等我下半1就还</t>
+  </si>
+  <si>
+    <t>表明今天可以还</t>
+  </si>
+  <si>
+    <t>到时间就还</t>
+  </si>
+  <si>
+    <t>到时见比较模糊</t>
+  </si>
+  <si>
+    <t>嗯</t>
+  </si>
+  <si>
+    <t>嗯，知道了</t>
+  </si>
+  <si>
+    <t>知道了比较模糊！</t>
+  </si>
+  <si>
+    <t>发工资就还</t>
+  </si>
+  <si>
+    <t>是想讨价还价，不允许！</t>
+  </si>
+  <si>
+    <t>过几天就处理</t>
+  </si>
+  <si>
+    <t>推脱意味比较强</t>
+  </si>
+  <si>
+    <t>看看吧</t>
+  </si>
+  <si>
+    <t>在推脱</t>
+  </si>
+  <si>
+    <t>满意</t>
+  </si>
+  <si>
+    <t>没有确定能否还款</t>
+  </si>
+  <si>
+    <t>你弄好了再说</t>
+  </si>
+  <si>
+    <t>先还一点，剩下的再说</t>
+  </si>
+  <si>
+    <t>再说推脱意味很强</t>
   </si>
 </sst>
 </file>
@@ -934,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C76344C-0787-5140-A8F0-C7C92869D3AF}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1158,17 +1250,235 @@
         <v>80</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="6">
+        <v>106</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="6">
+        <v>106</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="6">
+        <v>102</v>
+      </c>
+      <c r="C24" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCE5F03-CB60-6A47-8D74-86E6CD770190}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCBDFE4-E30E-7345-83FF-5A4F268D952D}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA560D5-BC95-C144-90AC-E68972D4DF0B}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCE5F03-CB60-6A47-8D74-86E6CD770190}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1196,17 +1506,28 @@
         <v>82</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2C4F4D-7F09-5449-8E44-347BDCE6E347}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/MLModel/data/sample_labeling.xlsx
+++ b/MLModel/data/sample_labeling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weiluo/DockerDev/jupyter/Chatbot1.0/MLModel/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A544AC03-9802-DD41-BFB4-3D448A01C870}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6762C5A6-7DE3-8142-8A94-201A44586B2D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9480" yWindow="460" windowWidth="28040" windowHeight="16240" activeTab="6" xr2:uid="{E84A3ACB-809C-D248-AEB4-7F0C073B660B}"/>
   </bookViews>
@@ -1478,7 +1478,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/MLModel/data/sample_labeling.xlsx
+++ b/MLModel/data/sample_labeling.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weiluo/DockerDev/jupyter/Chatbot1.0/MLModel/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ozintel/Downloads/Tsl_python_progect/local_ml/Chatbot_project/Chatbot1.0/MLModel/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6762C5A6-7DE3-8142-8A94-201A44586B2D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="460" windowWidth="28040" windowHeight="16240" activeTab="6" xr2:uid="{E84A3ACB-809C-D248-AEB4-7F0C073B660B}"/>
+    <workbookView xWindow="10080" yWindow="6360" windowWidth="28040" windowHeight="16240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IDClassifier" sheetId="1" r:id="rId1"/>
@@ -22,9 +21,15 @@
     <sheet name="Installment" sheetId="6" r:id="rId7"/>
     <sheet name="confirmLoan" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179021" calcOnSave="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -291,9 +296,6 @@
     <t>我这两天还</t>
   </si>
   <si>
-    <t>我过两天还</t>
-  </si>
-  <si>
     <t>模糊确认，再次确认是哪一天</t>
   </si>
   <si>
@@ -376,17 +378,24 @@
   </si>
   <si>
     <t>再说推脱意味很强</t>
+  </si>
+  <si>
+    <t>我过两天还/处理</t>
+    <rPh sb="6" eb="7">
+      <t>chu li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -395,6 +404,12 @@
       <color rgb="FF24292E"/>
       <name val="Consolas"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -444,7 +459,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -755,7 +770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217A16B8-94AE-174A-A2C4-718C4D8E0A4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -947,12 +962,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F47101-20B8-E445-9722-C6ABD0B77C41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -978,12 +994,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF208F6-8F7B-8D49-84C9-D3BD8D9F7EAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1020,21 +1037,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C76344C-0787-5140-A8F0-C7C92869D3AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49" customWidth="1"/>
     <col min="3" max="3" width="85.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1258,12 +1276,12 @@
         <v>106</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="B21" s="6">
         <v>1</v>
@@ -1274,44 +1292,45 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B23" s="6">
         <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24" s="6">
         <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCBDFE4-E30E-7345-83FF-5A4F268D952D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1334,7 +1353,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1342,22 +1361,23 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>93</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA560D5-BC95-C144-90AC-E68972D4DF0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1380,29 +1400,29 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>95</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3">
         <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1410,74 +1430,75 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5">
         <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9">
         <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCE5F03-CB60-6A47-8D74-86E6CD770190}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1508,22 +1529,23 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2C4F4D-7F09-5449-8E44-347BDCE6E347}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1589,6 +1611,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>